--- a/American Flag XTimer.xlsx
+++ b/American Flag XTimer.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryanp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6806B14-0051-4C1E-A550-523094490510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C186BDB-E818-4085-947B-A48BEF828E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8B18A3B-ED80-47F0-8B3D-0A691C1BE762}"/>
   </bookViews>
   <sheets>
-    <sheet name="Timer" sheetId="1" r:id="rId1"/>
-    <sheet name="workspace" sheetId="2" r:id="rId2"/>
-    <sheet name="General Instructions" sheetId="3" r:id="rId3"/>
+    <sheet name="Creator's message" sheetId="4" r:id="rId1"/>
+    <sheet name="Timer" sheetId="1" r:id="rId2"/>
+    <sheet name="workspace" sheetId="2" r:id="rId3"/>
+    <sheet name="General Instructions" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterate="1"/>
   <extLst>
@@ -325,19 +326,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="47" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -346,31 +341,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="5" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38"/>
@@ -392,6 +390,136 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E25F69AB-DDBB-96BE-4AEE-8656E14972B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="104775"/>
+          <a:ext cx="12858750" cy="5419725"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="8000"/>
+            <a:t>Welcome!</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000"/>
+            <a:t>To</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t> show appreciation for this </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>valuable, free resource, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Please subscribe to my </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>YouTube channel: ExcelObstacleCourse</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>Please also share my videos so we can continue to</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="4000" baseline="0"/>
+            <a:t>grow the audience and community!</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -484,7 +612,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -661,7 +789,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1167,10 +1295,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7294D49-4B8A-485D-AA38-EB46206189D4}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y15" sqref="Y15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{008C348D-1914-487E-B739-84A92EA593B7}">
   <dimension ref="A2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+    <sheetView zoomScale="79" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -1181,7 +1324,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I2" s="18"/>
+      <c r="I2" s="11"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -1195,46 +1338,46 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D5" s="3" t="str">
+      <c r="D5" s="12" t="str">
         <f>IF(AND(B7&lt;&gt;"",B8=""),"TIMER STARTED!  PROCEED TO 'START'","")</f>
         <v/>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D6" s="4"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:9" ht="62.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="14"/>
     </row>
     <row r="8" spans="1:9" ht="62.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="9"/>
-      <c r="C8" s="7" t="str">
+      <c r="B8" s="6"/>
+      <c r="C8" s="5" t="str">
         <f ca="1">IF(B8&lt;&gt;"",IF(C8&lt;&gt;"",C8,NOW()),"")</f>
         <v/>
       </c>
-      <c r="D8" s="10" t="str">
+      <c r="D8" s="15" t="str">
         <f>IF(B8&lt;&gt;"","TIMER STOPPED!","")</f>
         <v/>
       </c>
     </row>
     <row r="9" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="11"/>
-      <c r="D9" s="12"/>
+      <c r="B9" s="7"/>
+      <c r="D9" s="16"/>
       <c r="H9" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="11"/>
-      <c r="D10" s="13"/>
+      <c r="B10" s="7"/>
+      <c r="D10" s="17"/>
       <c r="H10" t="s">
         <v>4</v>
       </c>
@@ -1255,7 +1398,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="8" t="s">
         <v>8</v>
       </c>
       <c r="I14" t="s">
@@ -1284,7 +1427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{654AE764-431D-4078-93F2-5A1CB5D09207}">
   <dimension ref="AA1:AA3"/>
   <sheetViews>
@@ -1293,15 +1436,15 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA1" s="15" t="s">
+      <c r="AA1" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA2" s="16"/>
+      <c r="AA2" s="9"/>
     </row>
     <row r="3" spans="27:27" x14ac:dyDescent="0.25">
-      <c r="AA3" s="17"/>
+      <c r="AA3" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1310,7 +1453,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6479008C-7C3B-4859-A0E8-687B28BFE3B8}">
   <dimension ref="A1"/>
   <sheetViews>
